--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1171189.630450899</v>
+        <v>1165060.873399461</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969143</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10853567.12155336</v>
+        <v>11110000.09323701</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>341.9826426543929</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>182.8098411364433</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>66.40055121331467</v>
+        <v>171.1971464172155</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>203.277685431288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>56.76365545758885</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>43.30112502764913</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>23.94563726208663</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>229.1535284738251</v>
+        <v>130.9898714432097</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542855</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>159.6836882007454</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>358.9473767737436</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>74.75769145492379</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>284.4297735342292</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>148.1185786361432</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>74.75769145492382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U19" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,13 +2247,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>48.8549711274588</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>108.9065924712584</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>177.6965697803346</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>99.97427419833816</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>245.879692121443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>474.7217947496369</v>
+        <v>1452.155307492518</v>
       </c>
       <c r="C2" t="n">
-        <v>474.7217947496369</v>
+        <v>1083.192790552106</v>
       </c>
       <c r="D2" t="n">
-        <v>474.7217947496369</v>
+        <v>724.9270919453559</v>
       </c>
       <c r="E2" t="n">
-        <v>474.7217947496369</v>
+        <v>724.9270919453559</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>313.9411871557483</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>302.2768409204413</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4348,34 +4348,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.46096678957</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="Y2" t="n">
-        <v>861.3216348137587</v>
+        <v>1838.75514755664</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>938.9442613508774</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>770.0080784229705</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106347</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282416</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W4" t="n">
-        <v>1569.374856222664</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X4" t="n">
-        <v>1341.385305324647</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>1120.592726181117</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1042.715325395395</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="C5" t="n">
-        <v>1042.715325395395</v>
+        <v>1275.288014512649</v>
       </c>
       <c r="D5" t="n">
-        <v>1042.715325395395</v>
+        <v>917.0223159058983</v>
       </c>
       <c r="E5" t="n">
-        <v>1042.715325395395</v>
+        <v>531.234063307654</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>120.2481585180464</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>108.5838122827393</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>108.5838122827393</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4582,37 +4582,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.949738926589</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W5" t="n">
-        <v>1416.181083656475</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="X5" t="n">
-        <v>1042.715325395395</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="Y5" t="n">
-        <v>1042.715325395395</v>
+        <v>1644.25053145306</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681274</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1490.124203461141</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1490.124203461141</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1490.124203461141</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1490.124203461141</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W7" t="n">
-        <v>1490.124203461141</v>
+        <v>1612.258607688552</v>
       </c>
       <c r="X7" t="n">
-        <v>1490.124203461141</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.331624317611</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1467.671350819694</v>
+        <v>1785.600156360223</v>
       </c>
       <c r="C8" t="n">
-        <v>1467.671350819694</v>
+        <v>1416.637639419812</v>
       </c>
       <c r="D8" t="n">
-        <v>1109.405652212943</v>
+        <v>1058.371940813061</v>
       </c>
       <c r="E8" t="n">
-        <v>1109.405652212943</v>
+        <v>672.5836882148169</v>
       </c>
       <c r="F8" t="n">
-        <v>698.4197474233356</v>
+        <v>261.5977834252093</v>
       </c>
       <c r="G8" t="n">
-        <v>282.7149971476244</v>
+        <v>249.9334371899023</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056585</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795505</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="Y8" t="n">
-        <v>1467.671350819694</v>
+        <v>2172.199996424345</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429752</v>
+        <v>614.5430248380218</v>
       </c>
       <c r="L9" t="n">
-        <v>801.944955774447</v>
+        <v>909.2465818694936</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330612</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>621.7403896492181</v>
+        <v>716.5983551657498</v>
       </c>
       <c r="C10" t="n">
-        <v>621.7403896492181</v>
+        <v>547.6621722378429</v>
       </c>
       <c r="D10" t="n">
-        <v>621.7403896492181</v>
+        <v>397.5455328255072</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>249.632439243114</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>102.7424917452037</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1475.14946532627</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1252.170984521005</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1252.170984521005</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1252.170984521005</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W10" t="n">
-        <v>1252.170984521005</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>1024.181433622988</v>
+        <v>1119.03939913952</v>
       </c>
       <c r="Y10" t="n">
-        <v>803.3888544794578</v>
+        <v>898.2468199959895</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1881.708680670285</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1519.135572818019</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1160.869874211268</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>775.0816216130238</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>364.0957168234162</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810564</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.542934265601</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>2641.774278995486</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>2268.308520734407</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2268.308520734407</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064537</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.0249360836216</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>142.0249360836216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>142.0249360836216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>142.0249360836216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>142.0249360836216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>142.0249360836216</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>142.0249360836216</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836216</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2175.400891308157</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1806.438374367745</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1448.172675760994</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1062.38442316275</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>651.3985183731427</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>66.5121164321834</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.60582160917</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.60582160917</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.60582160917</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.60582160917</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>2952.14006334809</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2562.000731372279</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.0249360836216</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>142.0249360836216</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>142.0249360836216</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>142.0249360836216</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>142.0249360836216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>142.0249360836216</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>142.0249360836216</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836216</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5703,22 +5703,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5770,34 +5770,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5837,19 +5837,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558404</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630497</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>2438.670847218161</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E22" t="n">
-        <v>2337.686731866303</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F22" t="n">
-        <v>2337.686731866303</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305899</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.33114932884</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673038</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467151</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430191</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532174</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388644</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5971,25 +5971,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2716.927329289434</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>3212.252935505192</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3809.631423131744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>4437.229386686351</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6220,34 +6220,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2757.723669558405</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2757.723669558405</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2757.723669558405</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>2610.833722060494</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6779,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2267.47159895366</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,52 +6919,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7031,13 +7031,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7077,22 +7077,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7168,19 +7168,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7192,31 +7192,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7399,19 +7399,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7736,19 +7736,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>30.36925650589507</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>138.9393975111064</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>224.3355197601772</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241554</v>
+        <v>193.3273467878338</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.325514997263951</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>21.5947289549143</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>126.4919521192243</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>31.71340154579411</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>21.59472895491427</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>110.003342051665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24414,7 +24414,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>116.66916716481</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>39.70888054695399</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>3.329716221310008</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>46.45968844823101</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.3047822678011</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>808052.5661967995</v>
+        <v>955106.6382508929</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>808052.5661967994</v>
+        <v>955106.6382508929</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>955106.6382508927</v>
+        <v>955106.6382508929</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>955106.6382508929</v>
+        <v>955106.6382508927</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>955106.6382508929</v>
+        <v>955106.6382508926</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>955106.638250893</v>
+        <v>955106.6382508927</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>955106.638250893</v>
+        <v>955106.6382508927</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>955106.6382508929</v>
+        <v>955106.6382508927</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>955106.638250893</v>
+        <v>955106.6382508927</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165589</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165589</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="G2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="H2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="I2" t="n">
         <v>464109.2948217537</v>
-      </c>
-      <c r="H2" t="n">
-        <v>464109.2948217537</v>
-      </c>
-      <c r="I2" t="n">
-        <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217536</v>
@@ -26343,16 +26343,16 @@
         <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217536</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.03345982</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341482</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545144</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7330.627242042245</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7330.627242042245</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-868704.4018905457</v>
+        <v>-868704.4018905459</v>
       </c>
       <c r="C6" t="n">
-        <v>246047.3816853742</v>
+        <v>246047.381685374</v>
       </c>
       <c r="D6" t="n">
-        <v>246047.3816853738</v>
+        <v>246047.381685374</v>
       </c>
       <c r="E6" t="n">
-        <v>128436.7161959328</v>
+        <v>-152353.4243427758</v>
       </c>
       <c r="F6" t="n">
-        <v>310509.6960131234</v>
+        <v>355132.0172817702</v>
       </c>
       <c r="G6" t="n">
-        <v>45636.36307630689</v>
+        <v>355132.0172817698</v>
       </c>
       <c r="H6" t="n">
-        <v>355479.396536127</v>
+        <v>355132.0172817699</v>
       </c>
       <c r="I6" t="n">
-        <v>355479.3965361268</v>
+        <v>355132.0172817699</v>
       </c>
       <c r="J6" t="n">
-        <v>187874.2187261443</v>
+        <v>187526.8394717874</v>
       </c>
       <c r="K6" t="n">
-        <v>355479.396536127</v>
+        <v>355132.0172817699</v>
       </c>
       <c r="L6" t="n">
-        <v>355479.3965361268</v>
+        <v>355132.01728177</v>
       </c>
       <c r="M6" t="n">
-        <v>307927.1307427121</v>
+        <v>222524.7235528432</v>
       </c>
       <c r="N6" t="n">
-        <v>355479.3965361268</v>
+        <v>355132.01728177</v>
       </c>
       <c r="O6" t="n">
-        <v>273343.5659406754</v>
+        <v>355132.01728177</v>
       </c>
       <c r="P6" t="n">
-        <v>355479.3965361268</v>
+        <v>355132.0172817698</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483754</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022539</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973558</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022537</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973561</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973558</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>64.89340308731852</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>118.2087114259621</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>220.1224471232763</v>
+        <v>115.3258519193755</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>203.5983603104234</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>8.946257214881591</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>151.3613353340884</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>262.5773610745044</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>71.8650240885803</v>
+        <v>170.0286811191957</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27912,13 +27912,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>115.3258519193756</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>34.97877216099209</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31077,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31676,22 +31676,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31700,22 +31700,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32326,19 +32326,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>198.5607970756955</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>361.7519118779087</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33028,28 +33028,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33195,7 +33195,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460027</v>
@@ -33499,31 +33499,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34140,7 +34140,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>384.4721492652009</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>421.5663560987689</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>474.3640795072295</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>615.5326193530511</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676403</v>
+        <v>379.9148430313188</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35339,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35348,10 +35348,10 @@
         <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35974,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>55.96455263125101</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1556674334643</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>245.9177694853267</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1165060.873399461</v>
+        <v>1168215.792741683</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>1042617.113969142</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11110000.09323701</v>
+        <v>10853567.12155336</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>15.56003531079915</v>
       </c>
       <c r="H2" t="n">
-        <v>182.8098411364433</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>171.1971464172155</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>67.22331801800679</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>108.0165900216661</v>
       </c>
       <c r="I5" t="n">
-        <v>56.76365545758885</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>23.94563726208663</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>130.9898714432097</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>35.54361781414441</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542855</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1375,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>23.81802663387241</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>4.043187116398991</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>1.744699627126292</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.1185786361432</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>25.53923626892095</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>29.24923305751745</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852985</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2490,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>75.00788511618082</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>103.1686991936193</v>
+        <v>22.65115569188789</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216692</v>
       </c>
       <c r="H31" t="n">
-        <v>4.019807611472022</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>72.26558381699921</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>135.5795121770518</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>196.7522338257557</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1452.155307492518</v>
+        <v>867.511359413126</v>
       </c>
       <c r="C2" t="n">
-        <v>1083.192790552106</v>
+        <v>498.5488424727143</v>
       </c>
       <c r="D2" t="n">
-        <v>724.9270919453559</v>
+        <v>140.2831438659638</v>
       </c>
       <c r="E2" t="n">
-        <v>724.9270919453559</v>
+        <v>140.2831438659638</v>
       </c>
       <c r="F2" t="n">
-        <v>313.9411871557483</v>
+        <v>133.3376431167603</v>
       </c>
       <c r="G2" t="n">
-        <v>302.2768409204413</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4348,34 +4348,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
         <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.894479532451</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2228.894479532451</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.75514755664</v>
+        <v>1254.111199477248</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605191</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919908</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460313</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800313</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>1463.519709552058</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X4" t="n">
-        <v>1235.53015865404</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="Y4" t="n">
-        <v>1014.73757951051</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1644.25053145306</v>
+        <v>603.6036480119274</v>
       </c>
       <c r="C5" t="n">
-        <v>1275.288014512649</v>
+        <v>603.6036480119274</v>
       </c>
       <c r="D5" t="n">
-        <v>917.0223159058983</v>
+        <v>245.3379494051769</v>
       </c>
       <c r="E5" t="n">
-        <v>531.234063307654</v>
+        <v>245.3379494051769</v>
       </c>
       <c r="F5" t="n">
-        <v>120.2481585180464</v>
+        <v>238.3924486559734</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5838122827393</v>
+        <v>226.7281024206663</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5838122827393</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4582,37 +4582,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796631</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.25053145306</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>1644.25053145306</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>1644.25053145306</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y5" t="n">
-        <v>1644.25053145306</v>
+        <v>990.2034880760491</v>
       </c>
     </row>
     <row r="6">
@@ -4640,25 +4640,25 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380219</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694938</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.8280128167645</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888576</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765219</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1612.258607688552</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1384.269056790534</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.476477647004</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1785.600156360223</v>
+        <v>474.7217947496369</v>
       </c>
       <c r="C8" t="n">
-        <v>1416.637639419812</v>
+        <v>105.7592778092252</v>
       </c>
       <c r="D8" t="n">
-        <v>1058.371940813061</v>
+        <v>105.7592778092252</v>
       </c>
       <c r="E8" t="n">
-        <v>672.5836882148169</v>
+        <v>105.7592778092252</v>
       </c>
       <c r="F8" t="n">
-        <v>261.5977834252093</v>
+        <v>98.81377706002171</v>
       </c>
       <c r="G8" t="n">
-        <v>249.9334371899023</v>
+        <v>87.14943082471464</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>87.14943082471464</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400157</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400157</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400157</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400157</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y8" t="n">
-        <v>2172.199996424345</v>
+        <v>861.3216348137587</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380218</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694936</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657498</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378429</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255072</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>249.632439243114</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452037</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312206</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.03939913952</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959895</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1285.591601078693</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>916.6290841382818</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>916.6290841382818</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>916.6290841382818</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>505.6431793486742</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>90.57072919367067</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>90.57072919367067</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>1672.191441142815</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>684.4520072430315</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>515.5158243151246</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>365.3991849027889</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>217.4860913203958</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>70.5961438224854</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>70.5961438224854</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>70.5961438224854</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>866.1004720732712</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1638.360256348808</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1269.397739408396</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>911.1320408016456</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>525.3437882034013</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>2415.099428388741</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2024.960096412929</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="Y16" t="n">
-        <v>1166.195182806534</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="17">
@@ -5497,25 +5497,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5527,19 +5527,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5609,13 +5609,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2267.47159895366</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5746,37 +5746,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5846,13 +5846,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>149.8982754122182</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5983,13 +5983,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6007,22 +6007,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6220,40 +6220,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F31" t="n">
-        <v>265.0731740618515</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G31" t="n">
-        <v>97.87707477673149</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="32">
@@ -6691,13 +6691,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6709,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>945.5445654848324</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>724.7519863413023</v>
       </c>
     </row>
     <row r="41">
@@ -7393,46 +7393,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7557,16 +7557,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>198.027470314254</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8057,22 +8057,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>162.007309792134</v>
       </c>
       <c r="O3" t="n">
-        <v>138.9393975111064</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878341</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878338</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154984</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23263,10 +23263,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>17.75890313905354</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>138.4949402405072</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>92.30923329343909</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>405.1313461145851</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.71340154579411</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>193.0454170831738</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>119.3662399606949</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>211.5151132204102</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>43.26526345294987</v>
+        <v>123.7828069546813</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>32.89260457059964</v>
       </c>
       <c r="H31" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>213.9188905722449</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>10.85445046951733</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>28.95742156328146</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26073,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>955106.6382508929</v>
+        <v>808052.5661967993</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>955106.6382508929</v>
+        <v>808052.5661967992</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>955106.638250893</v>
+        <v>955106.6382508929</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>955106.6382508927</v>
+        <v>955106.6382508929</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>955106.6382508926</v>
+        <v>955106.6382508929</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>955106.6382508927</v>
+        <v>955106.638250893</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>955106.6382508927</v>
+        <v>955106.6382508929</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>955106.6382508927</v>
+        <v>955106.6382508929</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>955106.6382508927</v>
+        <v>955106.6382508929</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>464109.2948217536</v>
+        <v>392146.6638165588</v>
       </c>
       <c r="F2" t="n">
-        <v>464109.2948217538</v>
+        <v>392146.6638165587</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
+        <v>464109.2948217538</v>
+      </c>
+      <c r="J2" t="n">
         <v>464109.2948217537</v>
-      </c>
-      <c r="J2" t="n">
-        <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217537</v>
@@ -26346,13 +26346,13 @@
         <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="N2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="N2" t="n">
-        <v>464109.2948217537</v>
-      </c>
       <c r="O2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217536</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.0334598204</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>47552.2657934148</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545141</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7330.627242042245</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7330.627242042245</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984475</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-868704.4018905459</v>
+        <v>-868704.4018905457</v>
       </c>
       <c r="C6" t="n">
-        <v>246047.381685374</v>
+        <v>246047.3816853739</v>
       </c>
       <c r="D6" t="n">
         <v>246047.381685374</v>
       </c>
       <c r="E6" t="n">
-        <v>-152353.4243427758</v>
+        <v>128089.0972661266</v>
       </c>
       <c r="F6" t="n">
-        <v>355132.0172817702</v>
+        <v>310162.0770833173</v>
       </c>
       <c r="G6" t="n">
-        <v>355132.0172817698</v>
+        <v>45601.62515087078</v>
       </c>
       <c r="H6" t="n">
-        <v>355132.0172817699</v>
+        <v>355444.6586106911</v>
       </c>
       <c r="I6" t="n">
-        <v>355132.0172817699</v>
+        <v>355444.6586106913</v>
       </c>
       <c r="J6" t="n">
-        <v>187526.8394717874</v>
+        <v>187839.4808007086</v>
       </c>
       <c r="K6" t="n">
-        <v>355132.0172817699</v>
+        <v>355444.6586106912</v>
       </c>
       <c r="L6" t="n">
-        <v>355132.01728177</v>
+        <v>355444.6586106914</v>
       </c>
       <c r="M6" t="n">
-        <v>222524.7235528432</v>
+        <v>307892.3928172765</v>
       </c>
       <c r="N6" t="n">
-        <v>355132.01728177</v>
+        <v>355444.6586106911</v>
       </c>
       <c r="O6" t="n">
-        <v>355132.01728177</v>
+        <v>273308.8280152397</v>
       </c>
       <c r="P6" t="n">
-        <v>355132.0172817698</v>
+        <v>355444.6586106911</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.306832697356</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>395.9876674621548</v>
       </c>
       <c r="H2" t="n">
-        <v>118.2087114259621</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>115.3258519193755</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>151.361335334088</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>193.0019625407393</v>
       </c>
       <c r="I5" t="n">
-        <v>8.946257214881591</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>262.5773610745044</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>170.0286811191957</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>30.16629485832608</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987943</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193756</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31077,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491901</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767382</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,46 +31676,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560635</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>553.2044093850079</v>
       </c>
       <c r="O3" t="n">
-        <v>474.3640795072295</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34801,7 +34801,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.914843031319</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313188</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961232</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805409</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
